--- a/predictdata/partcode.xlsx
+++ b/predictdata/partcode.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27760" windowHeight="13360"/>
+    <workbookView windowWidth="25120" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -31,7 +44,25 @@
     <t>dwOPTime_EF_U1</t>
   </si>
   <si>
-    <t>车机组1通风机</t>
+    <r>
+      <t>机组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通风机累计运行时间</t>
+    </r>
   </si>
   <si>
     <t>serviceTime</t>
@@ -40,25 +71,25 @@
     <t>dwOPTime_CF_U1</t>
   </si>
   <si>
-    <t>车机组1冷凝风机</t>
+    <t>机组1冷凝风机累计运行时间</t>
   </si>
   <si>
     <t>dwOPTime_Comp_U11</t>
   </si>
   <si>
-    <t>车机组1压缩机1</t>
+    <t>机组1压缩机1累计运行时间</t>
   </si>
   <si>
     <t>dwOPTime_Comp_U12</t>
   </si>
   <si>
-    <t>车机组1压缩机2</t>
+    <t>机组1压缩机2累计运行时间</t>
   </si>
   <si>
     <t>dwOPCount_FAD_U1</t>
   </si>
   <si>
-    <t>车机组1新风阀</t>
+    <t>机组1新风阀开关总次数</t>
   </si>
   <si>
     <t>serviceValue</t>
@@ -67,56 +98,68 @@
     <t>dwOPCount_RAD_U1</t>
   </si>
   <si>
-    <t>车机组1回风阀</t>
+    <t>机组1回风阀开关总次数</t>
   </si>
   <si>
     <t>dwOPTime_EF_U2</t>
   </si>
   <si>
-    <t>车机组2通风机</t>
+    <t>机组2通风机累计运行时间</t>
   </si>
   <si>
     <t>dwOPTime_CF_U2</t>
   </si>
   <si>
-    <t>车机组2冷凝风机</t>
+    <t>机组2冷凝风机累计运行时间</t>
   </si>
   <si>
     <t>dwOPTime_Comp_U21</t>
   </si>
   <si>
-    <t>车机组2压缩机1</t>
+    <t>机组2压缩机1累计运行时间</t>
   </si>
   <si>
     <t>dwOPTime_Comp_U22</t>
   </si>
   <si>
-    <t>车机组2压缩机2</t>
+    <t>机组2压缩机2累计运行时间</t>
   </si>
   <si>
     <t>dwOPCount_FAD_U2</t>
   </si>
   <si>
-    <t>车机组2新风阀</t>
+    <t>机组2新风阀开关总次数</t>
   </si>
   <si>
     <t>dwOPCount_RAD_U2</t>
   </si>
   <si>
-    <t>车机组2回风阀</t>
+    <t>机组2回风阀开关总次数</t>
+  </si>
+  <si>
+    <t>dwEXUFan_op_tm</t>
+  </si>
+  <si>
+    <t>废排风机累计运行时间</t>
+  </si>
+  <si>
+    <t>dwDmpEXU_op_cnt</t>
+  </si>
+  <si>
+    <t>废排风阀开关总次数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +180,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,76 +204,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,18 +225,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +249,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -258,16 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +319,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,49 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,133 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,31 +548,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.25"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.25"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +577,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,20 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +642,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -592,233 +659,245 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1087,17 +1166,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="28.2019230769231" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7884615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6634615384615" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.8269230769231" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.23076923076923" style="1"/>
   </cols>
@@ -1116,173 +1195,261 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" ht="17" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>50001</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" ht="16.8" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>50002</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" ht="16.8" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>50003</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:4">
+    <row r="5" ht="16.8" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>50004</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:4">
+    <row r="6" ht="16.8" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>50005</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:4">
+    <row r="7" ht="16.8" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>50006</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:4">
+    <row r="8" ht="16.8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>50011</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:4">
+    <row r="9" ht="16.8" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>50012</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:4">
+    <row r="10" ht="16.8" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>50013</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:4">
+    <row r="11" ht="16.8" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>50014</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:4">
+    <row r="12" ht="16.8" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>50015</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:4">
+    <row r="13" ht="16.8" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>50016</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50021</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50022</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictdata/partcode.xlsx
+++ b/predictdata/partcode.xlsx
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.2" outlineLevelCol="6"/>
